--- a/Assets/Spreadsheet/Scripts/GameStart.xlsx
+++ b/Assets/Spreadsheet/Scripts/GameStart.xlsx
@@ -80,7 +80,7 @@
 @set "game_chapter = 1"
 @showUI MapButtonUI
 @showUI QuestLogUI
-{0}
+p: {0}
 </t>
   </si>
   <si>
@@ -195,14 +195,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
